--- a/documents/StatusTracker.xlsx
+++ b/documents/StatusTracker.xlsx
@@ -99,6 +99,29 @@
     <number:text-style style:name="N100">
       <number:text-content/>
     </number:text-style>
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:glyph-orientation-vertical="0" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" fo:padding="0.71mm" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="automatic" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:padding="0.71mm"/>
+    </style:style>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:padding="0.71mm"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce47" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:padding="0.71mm"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce48" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:padding="0.71mm"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Cambria" fo:font-size="11pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="Caladea" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Caladea" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:glyph-orientation-vertical="0" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" fo:padding="0.71mm" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
     <style:style style:name="ce49" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:glyph-orientation-vertical="0" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" fo:padding="0.71mm" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
@@ -119,29 +142,6 @@
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce54" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:padding="0.71mm"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Cambria" fo:font-size="11pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="Caladea" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Caladea" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:glyph-orientation-vertical="0" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" fo:padding="0.71mm" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:glyph-orientation-vertical="0" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" fo:padding="0.71mm" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="automatic" loext:vertical-justify="auto"/>
-      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:padding="0.71mm"/>
-    </style:style>
-    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:padding="0.71mm"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce47" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:padding="0.71mm"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce48" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:padding="0.71mm"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Cambria" fo:font-size="11pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="Caladea" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Caladea" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
@@ -355,19 +355,19 @@
       <style:table-cell-properties style:glyph-orientation-vertical="0" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" fo:padding="0.71mm" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="T4" style:family="text">
+    <style:style style:name="T6" style:family="text">
       <style:text-properties fo:color="#0000ff" fo:font-size="15pt" style:font-size-asian="15pt" style:font-weight-asian="bold" style:font-size-complex="15pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T5" style:family="text">
+    <style:style style:name="T7" style:family="text">
       <style:text-properties fo:color="#0000ff" fo:font-size="15pt" style:font-size-asian="15pt" style:font-size-complex="15pt"/>
     </style:style>
     <style:style style:name="T3" style:family="text">
       <style:text-properties fo:font-size="11pt" style:font-size-asian="11pt" style:font-size-complex="11pt"/>
     </style:style>
-    <style:style style:name="T6" style:family="text">
+    <style:style style:name="T4" style:family="text">
       <style:text-properties fo:color="#0000ff" fo:font-size="15pt" style:font-size-asian="15pt" style:font-size-complex="15pt" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T7" style:family="text">
+    <style:style style:name="T5" style:family="text">
       <style:text-properties fo:color="#0000ff" fo:font-size="15pt" style:font-size-asian="15pt" style:font-size-complex="15pt"/>
     </style:style>
     <style:style style:name="T8" style:family="text">
@@ -387,17 +387,17 @@
       </table:content-validations>
       <table:table table:name="Instructions" table:style-name="ta1">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co1" table:default-cell-style-name="ce17"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce17"/>
-        <table:table-column table:style-name="co3" table:number-columns-repeated="4" table:default-cell-style-name="ce17"/>
-        <table:table-column table:style-name="co4" table:default-cell-style-name="ce17"/>
-        <table:table-column table:style-name="co3" table:number-columns-repeated="250" table:default-cell-style-name="ce17"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce51"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce51"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="4" table:default-cell-style-name="ce51"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="ce51"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="250" table:default-cell-style-name="ce51"/>
         <table:table-column table:style-name="co3" table:number-columns-repeated="767" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="11">
+          <table:table-cell table:style-name="ce49" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="11">
             <text:p>
-              <text:span text:style-name="T6">Using the Status tracker</text:span>
-              <text:span text:style-name="T7"> </text:span>
+              <text:span text:style-name="T4">Using the Status tracker</text:span>
+              <text:span text:style-name="T5"> </text:span>
             </text:p>
             <text:p>
               <text:span text:style-name="T3">- At the end of each week, update the status of all activities completed during the week.</text:span>
@@ -434,14 +434,14 @@
             </text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:covered-table-cell table:style-name="ce18"/>
+          <table:covered-table-cell table:style-name="ce52"/>
           <table:covered-table-cell table:number-columns-repeated="4"/>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:covered-table-cell table:style-name="ce10"/>
+          <table:covered-table-cell table:style-name="ce50"/>
           <table:covered-table-cell/>
-          <table:covered-table-cell table:style-name="ce18"/>
+          <table:covered-table-cell table:style-name="ce52"/>
           <table:covered-table-cell table:number-columns-repeated="4"/>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
@@ -482,16 +482,16 @@
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce18" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce52" office:value-type="string" calcext:value-type="string">
             <text:p>PROJECT NUMBER</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce47" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce53" office:value-type="string" calcext:value-type="string">
             <text:p>SSAD 39</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce18" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce52" office:value-type="string" calcext:value-type="string">
             <text:p>PROJECT NAME</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
@@ -500,40 +500,40 @@
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce18" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce52" office:value-type="string" calcext:value-type="string">
             <text:p>PROJECT MENTOR (sponsor)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce48" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce54" office:value-type="string" calcext:value-type="string">
             <text:p>Anil Upadhyay</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce18" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce52" office:value-type="string" calcext:value-type="string">
             <text:p>TEAM MEMBERS</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce47" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce53" office:value-type="string" calcext:value-type="string">
             <text:p>Pulkit Gera</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce47" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce53" office:value-type="string" calcext:value-type="string">
             <text:p>Anush Amar Mahajan</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce47" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce53" office:value-type="string" calcext:value-type="string">
             <text:p>Sarthak Singhal</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro5" table:number-rows-repeated="3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce47"/>
+          <table:table-cell table:style-name="ce53"/>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048549">
@@ -548,19 +548,19 @@
       </table:table>
       <table:table table:name="Status" table:style-name="ta2">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce17"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce17"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce10"/>
-        <table:table-column table:style-name="co8" table:default-cell-style-name="ce10"/>
-        <table:table-column table:style-name="co9" table:default-cell-style-name="ce10"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="ce51"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce51"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce50"/>
+        <table:table-column table:style-name="co8" table:default-cell-style-name="ce50"/>
+        <table:table-column table:style-name="co9" table:default-cell-style-name="ce50"/>
         <table:table-column table:style-name="co10" table:default-cell-style-name="ce28"/>
-        <table:table-column table:style-name="co11" table:default-cell-style-name="ce17"/>
+        <table:table-column table:style-name="co11" table:default-cell-style-name="ce51"/>
         <table:table-column table:style-name="co9" table:number-columns-repeated="2" table:default-cell-style-name="ce43"/>
         <table:table-column table:style-name="co3" table:number-columns-repeated="174" table:default-cell-style-name="ce59"/>
-        <table:table-column table:style-name="co3" table:number-columns-repeated="74" table:default-cell-style-name="ce17"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="74" table:default-cell-style-name="ce51"/>
         <table:table-column table:style-name="co3" table:number-columns-repeated="767" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro7">
-          <table:table-cell table:style-name="ce18" table:formula="of:=([$Instructions.A12])" office:value-type="string" office:string-value="PROJECT NUMBER" calcext:value-type="string">
+          <table:table-cell table:style-name="ce52" table:formula="of:=([$Instructions.A12])" office:value-type="string" office:string-value="PROJECT NUMBER" calcext:value-type="string">
             <text:p>PROJECT NUMBER</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
@@ -571,7 +571,7 @@
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce18" table:formula="of:=([$Instructions.A13])" office:value-type="string" office:string-value="PROJECT NAME" calcext:value-type="string">
+          <table:table-cell table:style-name="ce52" table:formula="of:=([$Instructions.A13])" office:value-type="string" office:string-value="PROJECT NAME" calcext:value-type="string">
             <text:p>PROJECT NAME</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce57" office:value-type="string" calcext:value-type="string">
@@ -582,7 +582,7 @@
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce18" table:formula="of:=([$Instructions.A14])" office:value-type="string" office:string-value="PROJECT MENTOR (sponsor)" calcext:value-type="string">
+          <table:table-cell table:style-name="ce52" table:formula="of:=([$Instructions.A14])" office:value-type="string" office:string-value="PROJECT MENTOR (sponsor)" calcext:value-type="string">
             <text:p>PROJECT MENTOR (sponsor)</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce16" office:value-type="string" calcext:value-type="string">
@@ -759,7 +759,7 @@
               </table:table-cell>
               <table:table-cell table:style-name="ce22" table:number-columns-repeated="2"/>
               <table:table-cell table:style-name="ce32" table:content-validation-name="val2" office:value-type="string" calcext:value-type="string">
-                <text:p>Ongoing</text:p>
+                <text:p>Done</text:p>
               </table:table-cell>
               <table:table-cell table:style-name="ce59"/>
               <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D11]=&quot;&quot;;[.E11]=&quot;&quot;);&quot;&quot;;[.D11]-[.E11])">
@@ -801,7 +801,7 @@
               </table:table-cell>
               <table:table-cell table:style-name="ce22" table:number-columns-repeated="3"/>
               <table:table-cell table:style-name="ce32" table:content-validation-name="val2" office:value-type="string" calcext:value-type="string">
-                <text:p>Planned</text:p>
+                <text:p>Done</text:p>
               </table:table-cell>
               <table:table-cell table:style-name="ce59"/>
               <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D13]=&quot;&quot;;[.E13]=&quot;&quot;);&quot;&quot;;[.D13]-[.E13])">
@@ -819,19 +819,19 @@
               <table:table-cell table:style-name="ce59" table:content-validation-name="val1" office:value-type="string" calcext:value-type="string">
                 <text:p>Preparation</text:p>
               </table:table-cell>
-              <table:table-cell table:style-name="ce22" table:number-columns-repeated="2"/>
-              <table:table-cell table:style-name="ce22" office:value-type="float" office:value="0.25" calcext:value-type="float">
+              <table:table-cell table:style-name="ce22"/>
+              <table:table-cell table:number-columns-repeated="2" table:style-name="ce22" office:value-type="float" office:value="0.25" calcext:value-type="float">
                 <text:p>0.25</text:p>
               </table:table-cell>
               <table:table-cell table:style-name="ce32" table:content-validation-name="val2" office:value-type="string" calcext:value-type="string">
-                <text:p>Planned</text:p>
+                <text:p>Done</text:p>
               </table:table-cell>
               <table:table-cell table:style-name="ce59"/>
-              <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D14]=&quot;&quot;;[.E14]=&quot;&quot;);&quot;&quot;;[.D14]-[.E14])">
-                <text:p/>
+              <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D14]=&quot;&quot;;[.E14]=&quot;&quot;);&quot;&quot;;[.D14]-[.E14])" office:value-type="float" office:value="0" calcext:value-type="float">
+                <text:p>0</text:p>
               </table:table-cell>
-              <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.H14]=&quot;&quot;;[.E14]=0);&quot;&quot;;ABS([.H14])/[.E14]*100)">
-                <text:p/>
+              <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.H14]=&quot;&quot;;[.E14]=0);&quot;&quot;;ABS([.H14])/[.E14]*100)" office:value-type="float" office:value="0" calcext:value-type="float">
+                <text:p>0</text:p>
               </table:table-cell>
               <table:table-cell table:number-columns-repeated="1015"/>
             </table:table-row>
@@ -843,19 +843,21 @@
                 <text:p>Coordination</text:p>
               </table:table-cell>
               <table:table-cell table:style-name="ce22"/>
-              <table:table-cell/>
+              <table:table-cell office:value-type="float" office:value="0.5" calcext:value-type="float">
+                <text:p>0.5</text:p>
+              </table:table-cell>
               <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
                 <text:p>1</text:p>
               </table:table-cell>
               <table:table-cell table:style-name="ce33" table:content-validation-name="val2" office:value-type="string" calcext:value-type="string">
-                <text:p>Planned</text:p>
+                <text:p>Done</text:p>
               </table:table-cell>
               <table:table-cell/>
-              <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D15]=&quot;&quot;;[.E15]=&quot;&quot;);&quot;&quot;;[.D15]-[.E15])">
-                <text:p/>
+              <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D15]=&quot;&quot;;[.E15]=&quot;&quot;);&quot;&quot;;[.D15]-[.E15])" office:value-type="float" office:value="-0.5" calcext:value-type="float">
+                <text:p>-0.5</text:p>
               </table:table-cell>
-              <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.H15]=&quot;&quot;;[.E15]=0);&quot;&quot;;ABS([.H15])/[.E15]*100)">
-                <text:p/>
+              <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.H15]=&quot;&quot;;[.E15]=0);&quot;&quot;;ABS([.H15])/[.E15]*100)" office:value-type="float" office:value="50" calcext:value-type="float">
+                <text:p>50</text:p>
               </table:table-cell>
               <table:table-cell table:number-columns-repeated="1015"/>
             </table:table-row>
@@ -868,19 +870,19 @@
           <table:table-cell table:style-name="ce59" table:content-validation-name="val1" office:value-type="string" calcext:value-type="string">
             <text:p>Documentation</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce22" office:value-type="float" office:value="0.25" calcext:value-type="float">
+          <table:table-cell table:style-name="ce22"/>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce22" office:value-type="float" office:value="0.25" calcext:value-type="float">
             <text:p>0.25</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce34" table:content-validation-name="val2" office:value-type="string" calcext:value-type="string">
-            <text:p>Planned</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce59"/>
-          <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D16]=&quot;&quot;;[.E16]=&quot;&quot;);&quot;&quot;;[.D16]-[.E16])">
-            <text:p/>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.H16]=&quot;&quot;;[.E16]=0);&quot;&quot;;ABS([.H16])/[.E16]*100)">
-            <text:p/>
+            <text:p>Done</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce59"/>
+          <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D16]=&quot;&quot;;[.E16]=&quot;&quot;);&quot;&quot;;[.D16]-[.E16])" office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.H16]=&quot;&quot;;[.E16]=0);&quot;&quot;;ABS([.H16])/[.E16]*100)" office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
@@ -892,19 +894,18 @@
             <text:p>Coordination</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce22"/>
-          <table:table-cell table:style-name="ce22" office:value-type="float" office:value="1" calcext:value-type="float">
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce22" office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce32" table:content-validation-name="val2" office:value-type="string" calcext:value-type="string">
-            <text:p>Planned</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce59"/>
-          <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D17]=&quot;&quot;;[.E17]=&quot;&quot;);&quot;&quot;;[.D17]-[.E17])">
-            <text:p/>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.H17]=&quot;&quot;;[.E17]=0);&quot;&quot;;ABS([.H17])/[.E17]*100)">
-            <text:p/>
+            <text:p>Done</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce59"/>
+          <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.D17]=&quot;&quot;;[.E17]=&quot;&quot;);&quot;&quot;;[.D17]-[.E17])" office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce42" table:formula="of:=IF(OR([.H17]=&quot;&quot;;[.E17]=0);&quot;&quot;;ABS([.H17])/[.E17]*100)" office:value-type="float" office:value="0" calcext:value-type="float">
+            <text:p>0</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
@@ -5236,12 +5237,12 @@
   <office:meta>
     <meta:initial-creator>swami</meta:initial-creator>
     <meta:creation-date>2003-08-12T23:45:36</meta:creation-date>
-    <dc:date>2018-08-12T22:07:18.331781277</dc:date>
+    <dc:date>2018-11-10T17:50:49.621642036</dc:date>
     <meta:print-date>2003-11-22T00:06:36</meta:print-date>
-    <meta:editing-duration>PT8H38M5S</meta:editing-duration>
-    <meta:editing-cycles>17</meta:editing-cycles>
+    <meta:editing-duration>PT8H39M51S</meta:editing-duration>
+    <meta:editing-cycles>18</meta:editing-cycles>
     <meta:generator>LibreOffice/6.0.3.2$Linux_X86_64 LibreOffice_project/00m0$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="2" meta:cell-count="677" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="2" meta:cell-count="681" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -5277,8 +5278,8 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Status">
-              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">12</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">18</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -5328,7 +5329,7 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kQH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQARHVwbGV4Ok5vbmUAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kQH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item-map-indexed config:name="ForbiddenCharacters">
         <config:config-item-map-entry>
@@ -5976,9 +5977,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2018-08-12">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2018-11-10">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="22:06:38.423495083">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="17:49:03.929206134">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
@@ -6017,7 +6018,7 @@
         <style:region-right>
           <text:p>
             <text:span text:style-name="MT1">
-              <text:date style:data-style-name="N2" text:date-value="2018-08-12">00/00/0000</text:date>
+              <text:date style:data-style-name="N2" text:date-value="2018-11-10">00/00/0000</text:date>
             </text:span>
           </text:p>
         </style:region-right>
@@ -6038,7 +6039,7 @@
         <style:region-right>
           <text:p>
             <text:span text:style-name="MT1">
-              <text:date style:data-style-name="N2" text:date-value="2018-08-12">00/00/0000</text:date>
+              <text:date style:data-style-name="N2" text:date-value="2018-11-10">00/00/0000</text:date>
             </text:span>
           </text:p>
         </style:region-right>
